--- a/doc/_meeting_weekly_doc/02_week_plan_ljj.xlsx
+++ b/doc/_meeting_weekly_doc/02_week_plan_ljj.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t xml:space="preserve">작성자 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,27 +133,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>오브젝트 바운딩 박스 추가, 처리 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 바운딩 박스 추가, 처리 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OBB vs OBB 처리 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1인칭 발사 모델 익스포트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1인칭 발사 모델 렌더링 구현. 건물 익스포트 렌더링 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병원 다녀옴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>연구소 오브젝트 모델 익스포트 때 매터리얼 diffuse 컬러도 export 해야함. exporter와 렌더링 코드 수정 작업 필요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오브젝트 바운딩 박스 추가, 처리 작업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 바운딩 박스 추가, 처리 작업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OBB vs OBB 처리 작업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1인칭 발사 모델 익스포트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1인칭 발사 모델 렌더링 구현. 건물 익스포트 렌더링 구현</t>
+    <t>집안일로 작업시간이 많이 없어지고 있는데. 집에서 짬짬이 시간을 만들어야 겠다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -164,7 +172,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,15 +185,6 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -232,7 +231,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -704,26 +703,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -827,7 +806,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -846,12 +825,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -867,19 +840,133 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -887,120 +974,6 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1302,7 +1275,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:H25"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1314,387 +1287,384 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" thickBot="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" thickTop="1">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="44" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="52"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="32"/>
       <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="45"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:8" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="41" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="43"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="48"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="1:8" ht="45" customHeight="1" thickTop="1">
-      <c r="A5" s="24">
+      <c r="A5" s="38">
         <v>42674</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="23"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="37"/>
     </row>
     <row r="6" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A6" s="25"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="16"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="52"/>
     </row>
     <row r="7" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A7" s="26"/>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="40"/>
+      <c r="B7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="33"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="47"/>
     </row>
     <row r="8" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A8" s="27">
+      <c r="A8" s="41">
         <v>42675</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="23"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="37"/>
     </row>
     <row r="9" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A9" s="28"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="52"/>
     </row>
     <row r="10" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A10" s="29"/>
-      <c r="B10" s="13" t="s">
+      <c r="A10" s="43"/>
+      <c r="B10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="33"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="47"/>
     </row>
     <row r="11" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A11" s="27">
+      <c r="A11" s="41">
         <v>42676</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="23"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="37"/>
     </row>
     <row r="12" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A12" s="28"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="52"/>
     </row>
     <row r="13" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A13" s="29"/>
-      <c r="B13" s="13" t="s">
+      <c r="A13" s="43"/>
+      <c r="B13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="33"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="47"/>
     </row>
     <row r="14" spans="1:8" ht="54" customHeight="1" thickTop="1">
-      <c r="A14" s="27">
+      <c r="A14" s="41">
         <v>42677</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="23"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="37"/>
     </row>
     <row r="15" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A15" s="28"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="16"/>
+      <c r="C15" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="52"/>
     </row>
     <row r="16" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A16" s="29"/>
-      <c r="B16" s="13" t="s">
+      <c r="A16" s="43"/>
+      <c r="B16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="33"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="47"/>
     </row>
     <row r="17" spans="1:8" ht="18" thickTop="1">
-      <c r="A17" s="25">
+      <c r="A17" s="39">
         <v>42678</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="35"/>
-    </row>
-    <row r="18" spans="1:8" ht="20.25">
-      <c r="A18" s="25"/>
+      <c r="C17" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="49"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="39"/>
       <c r="B18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="7"/>
+      <c r="C18" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="52"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A19" s="30"/>
+      <c r="A19" s="44"/>
       <c r="B19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="52"/>
     </row>
     <row r="20" spans="1:8" ht="50.25" customHeight="1">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="17" t="s">
+      <c r="B20" s="35"/>
+      <c r="C20" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="55"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="8">
+      <c r="A21" s="6">
         <v>42681</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="6">
+        <v>42682</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="55"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="8">
-        <v>42682</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="54" t="s">
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="6">
+        <v>42683</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="55"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="8">
-        <v>42683</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="54" t="s">
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="6">
+        <v>42684</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="55"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="8">
-        <v>42684</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="54" t="s">
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A25" s="8">
+        <v>42685</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="55"/>
-    </row>
-    <row r="25" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A25" s="10">
-        <v>42685</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="57"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="12"/>
+      <c r="A26" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
+  <mergeCells count="35">
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C18:H18"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="A5:A7"/>
@@ -1711,11 +1681,19 @@
     <mergeCell ref="C16:H16"/>
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C25:H25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
